--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/62.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/62.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3228254392993473</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.008569768406449</v>
+        <v>-2.016679883645168</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2157744204592981</v>
+        <v>-0.2003598951958444</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2674993533715939</v>
+        <v>-0.2629810609982443</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2838218545116132</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.104253514254007</v>
+        <v>-2.120220627650595</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.256631786753297</v>
+        <v>-0.241799125815461</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2554052362723567</v>
+        <v>-0.2541786857914163</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2369382370160696</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.325968219141401</v>
+        <v>-2.349911265227823</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.29487198342337</v>
+        <v>-0.2748470677643778</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3306255334943412</v>
+        <v>-0.3317978010350509</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1953852007645309</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.454415683902512</v>
+        <v>-2.484827548686523</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2414282940439982</v>
+        <v>-0.2167063792533691</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3753674845785485</v>
+        <v>-0.377222863277216</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1654179067411909</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.535009382286647</v>
+        <v>-2.571497886773099</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2158616391160731</v>
+        <v>-0.187385052639383</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3750106809826508</v>
+        <v>-0.3781761692949732</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1481372925120241</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.462170215386687</v>
+        <v>-2.488060128273288</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0007176096792863663</v>
+        <v>0.03104827900710599</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3940768013377951</v>
+        <v>-0.3990208183435149</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1341316101554046</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.374065343868399</v>
+        <v>-2.396953227184047</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08395645803229303</v>
+        <v>0.1196465763528824</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3638613310116963</v>
+        <v>-0.3716817339289599</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1124138477409384</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.078789325999776</v>
+        <v>-2.094759488999747</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1715465564994049</v>
+        <v>0.2123801358870106</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3558982066560737</v>
+        <v>-0.3624682721860037</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.07533212545407629</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.625402961177077</v>
+        <v>-1.638898066070804</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2183024656582342</v>
+        <v>0.2574648623915503</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.263378729279484</v>
+        <v>-0.2755277392396286</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.01881132245936588</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.200097344311858</v>
+        <v>-1.214308496080088</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2330161920641044</v>
+        <v>0.2699115136419479</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1893252103121186</v>
+        <v>-0.2094214866902903</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.06148273876698985</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5595757273699969</v>
+        <v>-0.5734794791171456</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1308093445787253</v>
+        <v>0.1719137287468072</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08357289393280305</v>
+        <v>-0.1055513855194193</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1691344235369937</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02445267281493704</v>
+        <v>-0.043778619378376</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.681082170284773e-05</v>
+        <v>0.03426744033898223</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0477210706266909</v>
+        <v>0.02293389432364983</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3031691032992304</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6934898351506159</v>
+        <v>0.6696821914544323</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2666235072797837</v>
+        <v>-0.2263937493621585</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2135804597788508</v>
+        <v>0.1896916966326596</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4550645423483924</v>
       </c>
       <c r="E15" t="n">
-        <v>1.366046925717992</v>
+        <v>1.346272687457144</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5481250765847289</v>
+        <v>-0.5088876596081728</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4009230849281075</v>
+        <v>0.3724739448818711</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6090395843811323</v>
       </c>
       <c r="E16" t="n">
-        <v>2.107216432895465</v>
+        <v>2.084024809082797</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8164371112549973</v>
+        <v>-0.7825688259958543</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5322621836176809</v>
+        <v>0.5035794439522499</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7560032586524474</v>
       </c>
       <c r="E17" t="n">
-        <v>2.715917878210703</v>
+        <v>2.690043823261697</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.143567456308141</v>
+        <v>-1.110525613565992</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7149803901958338</v>
+        <v>0.683099226501536</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8976828866042459</v>
       </c>
       <c r="E18" t="n">
-        <v>3.341730648112109</v>
+        <v>3.31280942946207</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.423564351303549</v>
+        <v>-1.396126459739361</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8926588222220175</v>
+        <v>0.8637156464276152</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.041053271368612</v>
       </c>
       <c r="E19" t="n">
-        <v>3.799748140633356</v>
+        <v>3.771496614886386</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.806726279167507</v>
+        <v>-1.780430769030868</v>
       </c>
       <c r="G19" t="n">
-        <v>1.081696416931957</v>
+        <v>1.051540108911503</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.189368321166834</v>
       </c>
       <c r="E20" t="n">
-        <v>4.184140888422991</v>
+        <v>4.157688628672428</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.108370478822057</v>
+        <v>-2.097355921320664</v>
       </c>
       <c r="G20" t="n">
-        <v>1.246870255243452</v>
+        <v>1.218138721923882</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.339567199157066</v>
       </c>
       <c r="E21" t="n">
-        <v>4.562486882623347</v>
+        <v>4.531898140843079</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.470407804046846</v>
+        <v>-2.469073907526798</v>
       </c>
       <c r="G21" t="n">
-        <v>1.430913819452179</v>
+        <v>1.40152174203969</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.488884218881759</v>
       </c>
       <c r="E22" t="n">
-        <v>4.828575756426869</v>
+        <v>4.807506656569283</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.703306014463092</v>
+        <v>-2.714801189457762</v>
       </c>
       <c r="G22" t="n">
-        <v>1.560082210453206</v>
+        <v>1.533940400327107</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.633576318758761</v>
       </c>
       <c r="E23" t="n">
-        <v>5.052140960647516</v>
+        <v>5.029317728923603</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.069537459221539</v>
+        <v>-3.094101709517228</v>
       </c>
       <c r="G23" t="n">
-        <v>1.746613031181711</v>
+        <v>1.721216544122598</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.768696411789275</v>
       </c>
       <c r="E24" t="n">
-        <v>5.179437505091603</v>
+        <v>5.156899716244409</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.283860230467084</v>
+        <v>-3.314793272469377</v>
       </c>
       <c r="G24" t="n">
-        <v>1.897396401046012</v>
+        <v>1.8706306420676</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.889974393476963</v>
       </c>
       <c r="E25" t="n">
-        <v>5.356821955351594</v>
+        <v>5.336470122209865</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.552582131832127</v>
+        <v>-3.582337112047281</v>
       </c>
       <c r="G25" t="n">
-        <v>1.968530839654461</v>
+        <v>1.941353384219245</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.990815544430549</v>
       </c>
       <c r="E26" t="n">
-        <v>5.407494165175823</v>
+        <v>5.381313930047089</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.706377899918887</v>
+        <v>-3.731256564323441</v>
       </c>
       <c r="G26" t="n">
-        <v>2.006651491871892</v>
+        <v>1.979089786410324</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.065052300713208</v>
       </c>
       <c r="E27" t="n">
-        <v>5.419996319207804</v>
+        <v>5.389888194920814</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.879799695542046</v>
+        <v>-3.908354961786037</v>
       </c>
       <c r="G27" t="n">
-        <v>2.087555639880491</v>
+        <v>2.068443165553914</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.109979424155452</v>
       </c>
       <c r="E28" t="n">
-        <v>5.357067143463647</v>
+        <v>5.319874180595551</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.913596315121671</v>
+        <v>-3.93780620150417</v>
       </c>
       <c r="G28" t="n">
-        <v>2.111420006199613</v>
+        <v>2.093890276029197</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.125670728222929</v>
       </c>
       <c r="E29" t="n">
-        <v>5.272229617010699</v>
+        <v>5.229802314894751</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.903769578138245</v>
+        <v>-3.935019473932109</v>
       </c>
       <c r="G29" t="n">
-        <v>2.17961584698749</v>
+        <v>2.160241106769911</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.115366521617904</v>
       </c>
       <c r="E30" t="n">
-        <v>5.159371114826592</v>
+        <v>5.11254628463129</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.862247398306591</v>
+        <v>-3.895524670429965</v>
       </c>
       <c r="G30" t="n">
-        <v>2.153186764222643</v>
+        <v>2.133849839087023</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.085142659742062</v>
       </c>
       <c r="E31" t="n">
-        <v>5.104535586462881</v>
+        <v>5.055643125173403</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.839240275498639</v>
+        <v>-3.86764916078021</v>
       </c>
       <c r="G31" t="n">
-        <v>2.081640629157389</v>
+        <v>2.066675005512022</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.039424382652383</v>
       </c>
       <c r="E32" t="n">
-        <v>4.918539056247207</v>
+        <v>4.866916590008605</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.787517477308712</v>
+        <v>-3.813609273939317</v>
       </c>
       <c r="G32" t="n">
-        <v>1.999531277891535</v>
+        <v>1.985320736043982</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.982983627043197</v>
       </c>
       <c r="E33" t="n">
-        <v>4.684113604456384</v>
+        <v>4.63422819230516</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.712769868611207</v>
+        <v>-3.734933166162878</v>
       </c>
       <c r="G33" t="n">
-        <v>1.8676036057489</v>
+        <v>1.851664548703443</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.920060247993721</v>
       </c>
       <c r="E34" t="n">
-        <v>4.506808443884371</v>
+        <v>4.466963545913773</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.485985503058683</v>
+        <v>-3.50480735018279</v>
       </c>
       <c r="G34" t="n">
-        <v>1.731560188879569</v>
+        <v>1.713556550343319</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.852698169689398</v>
       </c>
       <c r="E35" t="n">
-        <v>4.244896306875219</v>
+        <v>4.206320043912258</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.327329582059257</v>
+        <v>-3.341754815985025</v>
       </c>
       <c r="G35" t="n">
-        <v>1.665707053411081</v>
+        <v>1.646812930686779</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.784431443232018</v>
       </c>
       <c r="E36" t="n">
-        <v>4.011783404380758</v>
+        <v>3.980523749856066</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.167781652070086</v>
+        <v>-3.186379658305826</v>
       </c>
       <c r="G36" t="n">
-        <v>1.594054792148073</v>
+        <v>1.576467119513365</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.716565898475267</v>
       </c>
       <c r="E37" t="n">
-        <v>3.759780038686056</v>
+        <v>3.726521064182984</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.06301405262338</v>
+        <v>-3.078947620382746</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497625113312851</v>
+        <v>1.483086434141208</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.648446075010555</v>
       </c>
       <c r="E38" t="n">
-        <v>3.583411716273527</v>
+        <v>3.558079270885473</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.934731876365668</v>
+        <v>-2.949731655568933</v>
       </c>
       <c r="G38" t="n">
-        <v>1.436481785310212</v>
+        <v>1.421000168772316</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.579920300709099</v>
       </c>
       <c r="E39" t="n">
-        <v>3.230904401622926</v>
+        <v>3.207845740517789</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.714894507321305</v>
+        <v>-2.730534703235155</v>
       </c>
       <c r="G39" t="n">
-        <v>1.286734060755028</v>
+        <v>1.269308627020336</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.510066709116308</v>
       </c>
       <c r="E40" t="n">
-        <v>3.000953327916727</v>
+        <v>2.979861051073426</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.603236329029038</v>
+        <v>-2.617566415329234</v>
       </c>
       <c r="G40" t="n">
-        <v>1.196667684340319</v>
+        <v>1.181270236855815</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.43707226621153</v>
       </c>
       <c r="E41" t="n">
-        <v>2.683999509355124</v>
+        <v>2.666837561352787</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.44219104377845</v>
+        <v>-2.45242795241699</v>
       </c>
       <c r="G41" t="n">
-        <v>1.052922189165014</v>
+        <v>1.037935828216638</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.362437737403003</v>
       </c>
       <c r="E42" t="n">
-        <v>2.38414908641089</v>
+        <v>2.368160625790617</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.398860449140238</v>
+        <v>-2.409966494743144</v>
       </c>
       <c r="G42" t="n">
-        <v>1.001715078907277</v>
+        <v>0.9887231585718669</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.287294568397417</v>
       </c>
       <c r="E43" t="n">
-        <v>2.116105416838391</v>
+        <v>2.10223399088711</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.24457491475005</v>
+        <v>-2.256257945313159</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9191257200688228</v>
+        <v>0.9038941710083935</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.212338444368086</v>
       </c>
       <c r="E44" t="n">
-        <v>1.784035324224265</v>
+        <v>1.776577214188989</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.190401760241287</v>
+        <v>-2.202085400725073</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8616498450954695</v>
+        <v>0.8512433785087942</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.139014242656573</v>
       </c>
       <c r="E45" t="n">
-        <v>1.545800307886473</v>
+        <v>1.538313531579391</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.140674927466018</v>
+        <v>-2.149391303857424</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7720878730804311</v>
+        <v>0.7610111036700097</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.066162928332204</v>
       </c>
       <c r="E46" t="n">
-        <v>1.305756266821447</v>
+        <v>1.30297990790089</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.076137390897276</v>
+        <v>-2.086826860677962</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6334803496860513</v>
+        <v>0.6272561091798373</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.993045269751872</v>
       </c>
       <c r="E47" t="n">
-        <v>1.069046052175526</v>
+        <v>1.074288320392175</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.00583305432988</v>
+        <v>-2.019817925527037</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5404339008447513</v>
+        <v>0.5327147447598278</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.9205707168997088</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8716873096727122</v>
+        <v>0.8768088135953658</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.92827493115392</v>
+        <v>-1.941142427671274</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4515672384012058</v>
+        <v>0.4428221957379921</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.8494661523902086</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7025032429115987</v>
+        <v>0.7062993892036786</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.835581626384458</v>
+        <v>-1.848479618935649</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3564287616386599</v>
+        <v>0.348458928155593</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.7805994085024347</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5173166873546464</v>
+        <v>0.5309587831314703</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.814424088028744</v>
+        <v>-1.825909504292587</v>
       </c>
       <c r="G50" t="n">
-        <v>0.319962824217247</v>
+        <v>0.3146851806013461</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.715573971198769</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2981831667712507</v>
+        <v>0.3084810674774648</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.749394345473866</v>
+        <v>-1.762625964635239</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2112212866011893</v>
+        <v>0.2035558035358197</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.6541542114892507</v>
       </c>
       <c r="E52" t="n">
-        <v>0.180914938094255</v>
+        <v>0.19491505730833</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.69319076503221</v>
+        <v>-1.706699898101502</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1785368573756144</v>
+        <v>0.1711604767110234</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.5955131633970554</v>
       </c>
       <c r="E53" t="n">
-        <v>0.006154976506310751</v>
+        <v>0.020994346571591</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.657870868562406</v>
+        <v>-1.677602412375883</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1266905502486457</v>
+        <v>0.1172440988071718</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.5386900702721301</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2143581846478891</v>
+        <v>-0.1994919780728319</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.582437709024237</v>
+        <v>-1.596778163975937</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04085824317192175</v>
+        <v>0.03452909630930715</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.4827834645413824</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3219140364683487</v>
+        <v>-0.3073344926113631</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.553412193938473</v>
+        <v>-1.568228996938714</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0252979468667253</v>
+        <v>0.01592224622375415</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.4283482930582361</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4953401015362449</v>
+        <v>-0.4842974876837213</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.568519319180846</v>
+        <v>-1.58173752008733</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1135230487645164</v>
+        <v>-0.1190318523169049</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3755513423007164</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6375485966061454</v>
+        <v>-0.6289237083162511</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.532890802848608</v>
+        <v>-1.545061769953116</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1328008115944923</v>
+        <v>-0.1385175980976519</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3237038005710063</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.8027846468266687</v>
+        <v>-0.7986981782924567</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.519321287632317</v>
+        <v>-1.526543968286368</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1867092605295461</v>
+        <v>-0.1940459963501485</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2731885441668535</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.9897454616322812</v>
+        <v>-0.981728054336428</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.500124644252349</v>
+        <v>-1.508226220601594</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2365629568055789</v>
+        <v>-0.2423443949004737</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2238137297168442</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.204009985453197</v>
+        <v>-1.204032552518237</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.525910260703227</v>
+        <v>-1.541080817695981</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2683770292254344</v>
+        <v>-0.2761449789644976</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1757651184905493</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.348075688983795</v>
+        <v>-1.346649084520882</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.455852942009914</v>
+        <v>-1.470448343804496</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3403879238463706</v>
+        <v>-0.3496465197194061</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1294012792110682</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.499395179122958</v>
+        <v>-1.495524012587639</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.397109651870279</v>
+        <v>-1.412935263669861</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3857477245761237</v>
+        <v>-0.3943963997724111</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.08517136919901622</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.624032469416424</v>
+        <v>-1.620826726339436</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.463850221923435</v>
+        <v>-1.481925221178864</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.489268341199218</v>
+        <v>-0.4990868442535082</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.04422687338268387</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.803125917412663</v>
+        <v>-1.803168611860036</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.417988456476718</v>
+        <v>-1.431457334781346</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5312796774136243</v>
+        <v>-0.5386957029222039</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.008443645947664473</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.975462664151888</v>
+        <v>-1.974397132729609</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.399778054831052</v>
+        <v>-1.41370620340527</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5597452853181328</v>
+        <v>-0.5678828469873054</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.02132070328070479</v>
       </c>
       <c r="E66" t="n">
-        <v>-2.113681668075179</v>
+        <v>-2.117745569544351</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.398389265450096</v>
+        <v>-1.413821478413176</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6552125093254458</v>
+        <v>-0.6601888521270333</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.04473460631137156</v>
       </c>
       <c r="E67" t="n">
-        <v>-2.319029761522715</v>
+        <v>-2.320407572331489</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.398625304751998</v>
+        <v>-1.412071615991585</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6965224367615919</v>
+        <v>-0.7023990224820594</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.06151929334253103</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.497793242432834</v>
+        <v>-2.498787413135933</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.396600978025871</v>
+        <v>-1.408693265363078</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7666230598229531</v>
+        <v>-0.7720513538460109</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.07139405596540603</v>
       </c>
       <c r="E69" t="n">
-        <v>-2.582556968483895</v>
+        <v>-2.586584884633139</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.403229595940769</v>
+        <v>-1.416361798031831</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7673293479666274</v>
+        <v>-0.7714463125346768</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.07425432050603559</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.720442345797005</v>
+        <v>-2.727402760560054</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.320216342231974</v>
+        <v>-1.336818383053057</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.790909491250384</v>
+        <v>-0.7948056645334507</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.0713875460682005</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.866920895524819</v>
+        <v>-2.871848444672267</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.359662352079978</v>
+        <v>-1.376067998443148</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8511208604589523</v>
+        <v>-0.85537505717927</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.06476873552650397</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.982519771309555</v>
+        <v>-2.981692108951208</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.331639546586789</v>
+        <v>-1.352192043631168</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.9179309614692579</v>
+        <v>-0.9221686903313033</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.05568162200561294</v>
       </c>
       <c r="E73" t="n">
-        <v>-3.002972851283624</v>
+        <v>-3.003929816825442</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.326403987497583</v>
+        <v>-1.34896190372711</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.9397624621727778</v>
+        <v>-0.9442100037476246</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.04531679194056327</v>
       </c>
       <c r="E74" t="n">
-        <v>-3.023126155245072</v>
+        <v>-3.025127609945821</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.392968900395836</v>
+        <v>-1.412178352110016</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.946635048358375</v>
+        <v>-0.9513497351896374</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.03435662600142399</v>
       </c>
       <c r="E75" t="n">
-        <v>-3.00171885437223</v>
+        <v>-3.003748670384448</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.409718542020691</v>
+        <v>-1.422412821065849</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.9737130867232817</v>
+        <v>-0.9782161310797126</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.02316718978637702</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.896940581313681</v>
+        <v>-2.896003743154196</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.395528127555471</v>
+        <v>-1.411653210407336</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.9075860968709341</v>
+        <v>-0.9162768565939171</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.01213985591100437</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.779006319257677</v>
+        <v>-2.782219991303462</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.320165718815804</v>
+        <v>-1.342057601666322</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.9030958608487148</v>
+        <v>-0.9127753019887065</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.0004694592929068104</v>
       </c>
       <c r="E78" t="n">
-        <v>-2.659286819380831</v>
+        <v>-2.66432476417077</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.33129982076984</v>
+        <v>-1.346298380131752</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.8699857069907697</v>
+        <v>-0.8768485344455389</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.01326337552163097</v>
       </c>
       <c r="E79" t="n">
-        <v>-2.460483174794801</v>
+        <v>-2.470631035014536</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.285756433916386</v>
+        <v>-1.302678683092761</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.8256700904596094</v>
+        <v>-0.837874603201338</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.0301035727032426</v>
       </c>
       <c r="E80" t="n">
-        <v>-2.312921405945083</v>
+        <v>-2.316702304220244</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.228050618847899</v>
+        <v>-1.246229304618375</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.7667066189556676</v>
+        <v>-0.7765879438396629</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.04912700251234511</v>
       </c>
       <c r="E81" t="n">
-        <v>-2.07244737080295</v>
+        <v>-2.076119093276973</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.15294925615788</v>
+        <v>-1.165432502648883</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.7305840668752639</v>
+        <v>-0.7393443575553963</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.06899367808616956</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.84169364148615</v>
+        <v>-1.848495476873244</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.152840690277419</v>
+        <v>-1.160069470138237</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.6450591598196209</v>
+        <v>-0.6520024968037208</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.08856858148190928</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.583589239261937</v>
+        <v>-1.595523557143866</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.057521067073879</v>
+        <v>-1.068880229757635</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.585307060880644</v>
+        <v>-0.5960264167744911</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.107283921283719</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.267745476332016</v>
+        <v>-1.2842871350061</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.969020966957059</v>
+        <v>-0.9854772367363983</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5255897274202416</v>
+        <v>-0.5360840225843687</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1247845162508998</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.00931903599048</v>
+        <v>-1.022297538071002</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.8951150487934665</v>
+        <v>-0.9062534201922395</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.4850757464672519</v>
+        <v>-0.4942770097966731</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1404102772092797</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.7028436546554088</v>
+        <v>-0.7158880281690194</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8104690374330176</v>
+        <v>-0.821318306431012</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.419789227307463</v>
+        <v>-0.4270655809810673</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1525333267656328</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.4332751833910393</v>
+        <v>-0.4477565300190685</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7039280936186668</v>
+        <v>-0.7067239700008798</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.3342441928694874</v>
+        <v>-0.3399878158824238</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1588667459941666</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.1496102254456688</v>
+        <v>-0.1609291333647592</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6242358579947656</v>
+        <v>-0.6274629482954395</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2075447607679365</v>
+        <v>-0.2147448743569474</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1568231556197997</v>
       </c>
       <c r="E89" t="n">
-        <v>0.07417820974266816</v>
+        <v>0.06547098216141288</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.4694038346782105</v>
+        <v>-0.4674124436686281</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2031271053062504</v>
+        <v>-0.2095056557436816</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1447739457650832</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2798763976586577</v>
+        <v>0.2746335195213314</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4099743837772332</v>
+        <v>-0.4057884981727113</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1129045891982939</v>
+        <v>-0.119009895172542</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1213494624808154</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5365115009725845</v>
+        <v>0.5250736585215282</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2998550353524017</v>
+        <v>-0.2939272162950873</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09799934769992485</v>
+        <v>-0.1016308154092828</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08638388209051738</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6838896836986015</v>
+        <v>0.6792805131444164</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1292205772219812</v>
+        <v>-0.119389875754156</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0936695208156904</v>
+        <v>-0.09768706831342985</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.0415986502441869</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8409149817687426</v>
+        <v>0.8323065613371204</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03614233649930577</v>
+        <v>0.04884637427529107</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05606425157011213</v>
+        <v>-0.06335402349860493</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.009101031575472499</v>
       </c>
       <c r="E94" t="n">
-        <v>1.028372272005228</v>
+        <v>1.01972176704691</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1604234331175505</v>
+        <v>0.173705675695093</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03955674845392595</v>
+        <v>-0.04492405040930886</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06191122986887167</v>
       </c>
       <c r="E95" t="n">
-        <v>1.042621238855416</v>
+        <v>1.036109115789777</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2638110870331138</v>
+        <v>0.2785333523284584</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.03321723293980663</v>
+        <v>-0.037421416164631</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1139777582022554</v>
       </c>
       <c r="E96" t="n">
-        <v>1.077553835695484</v>
+        <v>1.068186673941988</v>
       </c>
       <c r="F96" t="n">
-        <v>0.371486483306216</v>
+        <v>0.3830060551279565</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03624060973444676</v>
+        <v>-0.04234347602598783</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1626412124702935</v>
       </c>
       <c r="E97" t="n">
-        <v>1.084485584186726</v>
+        <v>1.073477735812777</v>
       </c>
       <c r="F97" t="n">
-        <v>0.422753365790274</v>
+        <v>0.4346486487488914</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0439524467712492</v>
+        <v>-0.05137701116930331</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2058816189123303</v>
       </c>
       <c r="E98" t="n">
-        <v>1.064518610992025</v>
+        <v>1.056298100110814</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4658027869965054</v>
+        <v>0.4745173336258817</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06670919714139599</v>
+        <v>-0.07308835749950393</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2402780405646883</v>
       </c>
       <c r="E99" t="n">
-        <v>0.985556450418191</v>
+        <v>0.9718649510665506</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4485896056573218</v>
+        <v>0.4550450061000232</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.08745259935759744</v>
+        <v>-0.09544621974705748</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2674459002227833</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9864024103968405</v>
+        <v>0.9671411154251368</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4641529515659019</v>
+        <v>0.4716086219184702</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1249901674080567</v>
+        <v>-0.1313229737947318</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2885326055326695</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9446850559486268</v>
+        <v>0.9298292180250745</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4652099440987063</v>
+        <v>0.4714036885710828</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1676352112056041</v>
+        <v>-0.1740015632295004</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.310578761999763</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9090748372366915</v>
+        <v>0.8955382577369451</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4508786379571572</v>
+        <v>0.4504565728488475</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1685738791271194</v>
+        <v>-0.1764467352225833</v>
       </c>
     </row>
   </sheetData>
